--- a/experimental_data/GEC/Schnegg1986.xlsx
+++ b/experimental_data/GEC/Schnegg1986.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="139" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="139" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Schnegg1986" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="105">
   <si>
     <t>Schnegg1986 – Quantitative Liver Function in the Elderly Assessed by GEC</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Study</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Subject No.</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>study</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>subject</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
   </si>
   <si>
     <t>sch1986</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>m</t>
@@ -328,7 +337,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -443,7 +452,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -452,91 +461,91 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -601,8 +610,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
@@ -615,7 +624,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1"/>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
               <a:t>Figure 1</a:t>
             </a:r>
           </a:p>
@@ -1236,11 +1247,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="1330829"/>
-        <c:axId val="19437972"/>
+        <c:axId val="39605283"/>
+        <c:axId val="33484319"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1330829"/>
+        <c:axId val="39605283"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1267,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>age [years]</a:t>
                 </a:r>
               </a:p>
@@ -1274,11 +1287,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19437972"/>
+        <c:crossAx val="33484319"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19437972"/>
+        <c:axId val="33484319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1295,7 +1308,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>Galactose elimination capacity [mg/min/kg]</a:t>
                 </a:r>
               </a:p>
@@ -1313,7 +1328,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1330829"/>
+        <c:crossAx val="39605283"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="2"/>
       </c:valAx>
@@ -1339,8 +1354,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
@@ -1353,7 +1368,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1"/>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
               <a:t>Caf</a:t>
             </a:r>
           </a:p>
@@ -1371,7 +1388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Schnegg1986!$I$30:$I$30</c:f>
+              <c:f>Schnegg1986!$J$30:$J$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1393,7 +1410,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Schnegg1986!$H$31:$H$67</c:f>
+              <c:f>Schnegg1986!$I$31:$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1513,7 +1530,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Schnegg1986!$I$31:$I$67</c:f>
+              <c:f>Schnegg1986!$J$31:$J$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1632,11 +1649,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58401834"/>
-        <c:axId val="30415816"/>
+        <c:axId val="55883257"/>
+        <c:axId val="50949528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58401834"/>
+        <c:axId val="55883257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1654,7 +1671,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>age [years]</a:t>
                 </a:r>
               </a:p>
@@ -1672,12 +1691,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30415816"/>
+        <c:crossAx val="50949528"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30415816"/>
+        <c:axId val="50949528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -1695,7 +1714,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>Caffeine clearance [ml/min/kg]</a:t>
                 </a:r>
               </a:p>
@@ -1713,7 +1734,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="58401834"/>
+        <c:crossAx val="55883257"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1739,8 +1760,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
@@ -1753,7 +1774,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1"/>
+              <a:rPr b="1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
               <a:t>AP</a:t>
             </a:r>
           </a:p>
@@ -1771,7 +1794,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Schnegg1986!$N$30:$N$30</c:f>
+              <c:f>Schnegg1986!$P$30:$P$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1793,7 +1816,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Schnegg1986!$M$31:$M$73</c:f>
+              <c:f>Schnegg1986!$O$31:$O$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1931,7 +1954,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Schnegg1986!$N$31:$N$73</c:f>
+              <c:f>Schnegg1986!$P$31:$P$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -2068,11 +2091,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="10439942"/>
-        <c:axId val="64211437"/>
+        <c:axId val="44514122"/>
+        <c:axId val="13963499"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10439942"/>
+        <c:axId val="44514122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2090,7 +2113,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>age [years]</a:t>
                 </a:r>
               </a:p>
@@ -2108,12 +2133,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64211437"/>
+        <c:crossAx val="13963499"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64211437"/>
+        <c:axId val="13963499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2154,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>Ainopyrine breath test [%dose kg mmol/CO2]</a:t>
                 </a:r>
               </a:p>
@@ -2147,7 +2174,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="10439942"/>
+        <c:crossAx val="44514122"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2173,23 +2200,23 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>286920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>366840</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPr id="0" name="Graphics 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2200,8 +2227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13801320" y="5451120"/>
-          <a:ext cx="4667760" cy="3514680"/>
+          <a:off x="4528440" y="13748760"/>
+          <a:ext cx="4667400" cy="3514320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,20 +2242,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>753480</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465120</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358920</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="1" name="Graphics 2"/>
+        <xdr:cNvPr id="1" name="Graphics 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2239,8 +2266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13455360" y="9140040"/>
-          <a:ext cx="4579920" cy="3676320"/>
+          <a:off x="10106640" y="13991400"/>
+          <a:ext cx="4579560" cy="3675960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2254,20 +2281,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467280</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>616680</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81720</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="2" name="Graphics 3"/>
+        <xdr:cNvPr id="2" name="Graphics 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2278,8 +2305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13703760" y="13102920"/>
-          <a:ext cx="4491360" cy="3943800"/>
+          <a:off x="5232240" y="17478720"/>
+          <a:ext cx="4491000" cy="3943440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,19 +2321,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:colOff>202320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>732240</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:colOff>758880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="3" name="Graphics 4"/>
+        <xdr:cNvPr id="3" name="Graphics 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2317,8 +2344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19379520" y="3529440"/>
-          <a:ext cx="8390160" cy="4372560"/>
+          <a:off x="19406520" y="3520440"/>
+          <a:ext cx="8389800" cy="4372200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2333,19 +2360,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:colOff>328680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>711360</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:colOff>738000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="4" name="Graphics 5"/>
+        <xdr:cNvPr id="4" name="Graphics 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2356,8 +2383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19505880" y="8015760"/>
-          <a:ext cx="8242920" cy="4076280"/>
+          <a:off x="19532880" y="8006760"/>
+          <a:ext cx="8242560" cy="4075920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2372,19 +2399,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:colOff>575280</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:colOff>136800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="5" name="Graphics 6"/>
+        <xdr:cNvPr id="5" name="Graphics 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2395,8 +2422,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17313840" y="12090240"/>
-          <a:ext cx="7395480" cy="2522160"/>
+          <a:off x="17340840" y="12081240"/>
+          <a:ext cx="7395120" cy="2521800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2411,15 +2438,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>432360</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:colOff>459360</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>659160</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2427,8 +2454,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="25844400" y="12245400"/>
-        <a:ext cx="4290480" cy="3144240"/>
+        <a:off x="25871400" y="12236400"/>
+        <a:ext cx="4290120" cy="3143880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2441,15 +2468,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>782280</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:colOff>809280</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>378720</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:colOff>405360</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2457,8 +2484,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23755680" y="14248080"/>
-        <a:ext cx="4473360" cy="3057480"/>
+        <a:off x="23782680" y="14239080"/>
+        <a:ext cx="4473000" cy="3057120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2471,15 +2498,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>646920</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:colOff>673920</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>434160</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:colOff>460800</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2487,8 +2514,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19038240" y="14672160"/>
-        <a:ext cx="4369320" cy="2979000"/>
+        <a:off x="19065240" y="14663160"/>
+        <a:ext cx="4368960" cy="2978640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2506,10 +2533,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z130"/>
+  <dimension ref="A1:AA130"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
-      <selection activeCell="K68" activeCellId="0" pane="topLeft" sqref="K68:L73"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2526,12 +2553,12 @@
     <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
+    <row r="1" s="1" customFormat="true" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.35" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="3" s="9">
+    <row r="3" s="9" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -2634,1490 +2661,1568 @@
       <c r="Z3" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
+      <c r="AA3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="10" t="s">
+      <c r="O6" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>119</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>0.646</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>113</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>8.7</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>5.8</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>18.7</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>2.09</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>6.4</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>0.481</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>82</v>
+      <c r="D7" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>82</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>15.4</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>4.2</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>0.053</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>13.2</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>5.6</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>17.3</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>4.93</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>11.9</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>0.586</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>14.2</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>4.3</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="Q8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="0" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="T8" s="0" t="n">
+      <c r="E9" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="V8" s="0" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="W8" s="0" t="n">
+      <c r="M9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>0.886</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="X8" s="0" t="n">
-        <v>240</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>0.471</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="T14" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>0.524</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>0.886</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="H15" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="J15" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>9</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>248</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>0.445</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>0.747</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>237</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>0.524</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>14</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="M15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>4.4</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="Q15" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="R15" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="T15" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="0" t="n">
         <v>4.8</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>13.2</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>2.87</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>9.7</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>0.949</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>16.6</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>6.2</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="P16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="0" t="n">
         <v>0.036</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>19.2</v>
       </c>
-      <c r="S16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="U16" s="0" t="n">
         <v>7.4</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>17.5</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>3.84</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>8.9</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>14.2</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>1.9</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.148</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>4.7</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>1.48</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>8.4</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>21.7</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>3.65</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>10.5</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.485</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.6" outlineLevel="0" r="21">
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" s="8" t="s">
+      <c r="D23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="22">
-      <c r="B22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="I23" s="0" t="n">
+      <c r="F25" s="0" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="J25" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J23" s="0" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="0" t="n">
+      <c r="K25" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M25" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="29">
+        <v>98</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>98</v>
+        <v>9</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="K29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="30">
+      <c r="O29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="G30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>86</v>
+        <v>36</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+        <v>35</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>15.773049</v>
@@ -4125,37 +4230,46 @@
       <c r="D31" s="0" t="n">
         <v>9.121622</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>57</v>
+      <c r="E31" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="0" t="n">
         <v>24.745762</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>0.79909706</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M31" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O31" s="0" t="n">
         <v>18.177933</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>0.70413697</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="Q31" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>18.609928</v>
@@ -4163,37 +4277,46 @@
       <c r="D32" s="0" t="n">
         <v>9.90991</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>57</v>
+      <c r="E32" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="0" t="n">
         <v>27.00565</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>0.8171558</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M32" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O32" s="0" t="n">
         <v>22.092466</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>0.54698414</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="Q32" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>19.631207</v>
@@ -4201,37 +4324,46 @@
       <c r="D33" s="0" t="n">
         <v>8.175675</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>57</v>
+      <c r="E33" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="0" t="n">
         <v>27.79661</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>0.83972913</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M33" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O33" s="0" t="n">
         <v>20.1282</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="P33" s="0" t="n">
         <v>0.9903361</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="Q33" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>19.74468</v>
@@ -4239,37 +4371,46 @@
       <c r="D34" s="0" t="n">
         <v>7.9504504</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>57</v>
+      <c r="E34" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <v>28.58757</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>0.9616253</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M34" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>23.340578</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="P34" s="0" t="n">
         <v>0.7616519</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="Q34" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>19.74468</v>
@@ -4277,37 +4418,46 @@
       <c r="D35" s="0" t="n">
         <v>7.747748</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>57</v>
+      <c r="E35" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="0" t="n">
         <v>29.83051</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="J35" s="0" t="n">
         <v>1.2054176</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M35" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O35" s="0" t="n">
         <v>24.555534</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="P35" s="0" t="n">
         <v>0.82291234</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="Q35" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>20.652483</v>
@@ -4315,37 +4465,46 @@
       <c r="D36" s="0" t="n">
         <v>7.117117</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>57</v>
+      <c r="E36" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="0" t="n">
         <v>32.542374</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>1.3227991</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M36" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O36" s="0" t="n">
         <v>25.05581</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="P36" s="0" t="n">
         <v>0.7546874</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="Q36" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>21.67376</v>
@@ -4353,37 +4512,46 @@
       <c r="D37" s="0" t="n">
         <v>6.0135136</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>57</v>
+      <c r="E37" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="0" t="n">
         <v>23.728813</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="J37" s="0" t="n">
         <v>1.4808127</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" s="0" t="n">
         <v>25.39547</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="P37" s="0" t="n">
         <v>0.73761296</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="Q37" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>22.695036</v>
@@ -4391,37 +4559,46 @@
       <c r="D38" s="0" t="n">
         <v>6.103604</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>57</v>
+      <c r="E38" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="0" t="n">
         <v>27.79661</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="J38" s="0" t="n">
         <v>1.4266366</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M38" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O38" s="0" t="n">
         <v>26.092466</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="P38" s="0" t="n">
         <v>0.7852811</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="Q38" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>23.716312</v>
@@ -4429,37 +4606,46 @@
       <c r="D39" s="0" t="n">
         <v>5.608108</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>57</v>
+      <c r="E39" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="0" t="n">
         <v>22.146893</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="J39" s="0" t="n">
         <v>1.683973</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M39" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39" s="0" t="n">
         <v>27.286057</v>
       </c>
-      <c r="N39" s="0" t="n">
+      <c r="P39" s="0" t="n">
         <v>0.7476791</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="Q39" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>23.943262</v>
@@ -4467,37 +4653,46 @@
       <c r="D40" s="0" t="n">
         <v>5.36036</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>57</v>
+      <c r="E40" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="0" t="n">
         <v>24.632769</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="J40" s="0" t="n">
         <v>1.9683973</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M40" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O40" s="0" t="n">
         <v>27.109964</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="P40" s="0" t="n">
         <v>0.7272395</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="Q40" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>21.560284</v>
@@ -4505,37 +4700,46 @@
       <c r="D41" s="0" t="n">
         <v>9.099099</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>57</v>
+      <c r="E41" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="0" t="n">
         <v>26.779661</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>1.972912</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M41" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O41" s="0" t="n">
         <v>27.268373</v>
       </c>
-      <c r="N41" s="0" t="n">
+      <c r="P41" s="0" t="n">
         <v>0.66586196</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="Q41" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>21.333334</v>
@@ -4543,37 +4747,46 @@
       <c r="D42" s="0" t="n">
         <v>8.941442</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>57</v>
+      <c r="E42" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="0" t="n">
         <v>25.649717</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="J42" s="0" t="n">
         <v>1.7562077</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M42" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O42" s="0" t="n">
         <v>30.375391</v>
       </c>
-      <c r="N42" s="0" t="n">
+      <c r="P42" s="0" t="n">
         <v>0.74400675</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="Q42" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>21.67376</v>
@@ -4581,37 +4794,46 @@
       <c r="D43" s="0" t="n">
         <v>8.693694</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>57</v>
+      <c r="E43" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="0" t="n">
         <v>28.58757</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="J43" s="0" t="n">
         <v>1.6117382</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M43" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O43" s="0" t="n">
         <v>29.419783</v>
       </c>
-      <c r="N43" s="0" t="n">
+      <c r="P43" s="0" t="n">
         <v>1.0884085</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="Q43" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>23.602837</v>
@@ -4619,37 +4841,46 @@
       <c r="D44" s="0" t="n">
         <v>8.941442</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>57</v>
+      <c r="E44" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="0" t="n">
         <v>34.915253</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="J44" s="0" t="n">
         <v>1.5891647</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M44" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O44" s="0" t="n">
         <v>35.244797</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="P44" s="0" t="n">
         <v>1.0333662</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="Q44" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>24.51064</v>
@@ -4657,37 +4888,46 @@
       <c r="D45" s="0" t="n">
         <v>8.873874</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>57</v>
+      <c r="E45" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" s="0" t="n">
         <v>33.559322</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="J45" s="0" t="n">
         <v>1.8465011</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M45" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O45" s="0" t="n">
         <v>35.235954</v>
       </c>
-      <c r="N45" s="0" t="n">
+      <c r="P45" s="0" t="n">
         <v>0.9924577</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="Q45" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>25.41844</v>
@@ -4695,37 +4935,46 @@
       <c r="D46" s="0" t="n">
         <v>8.693694</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>57</v>
+      <c r="E46" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" s="0" t="n">
         <v>35.028248</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="J46" s="0" t="n">
         <v>2.1083522</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M46" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O46" s="0" t="n">
         <v>33.313686</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="P46" s="0" t="n">
         <v>0.8358023</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="Q46" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>24.624113</v>
@@ -4733,37 +4982,46 @@
       <c r="D47" s="0" t="n">
         <v>8.581081</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>57</v>
+      <c r="E47" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" s="0" t="n">
         <v>41.920902</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="J47" s="0" t="n">
         <v>1.683973</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M47" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O47" s="0" t="n">
         <v>33.310738</v>
       </c>
-      <c r="N47" s="0" t="n">
+      <c r="P47" s="0" t="n">
         <v>0.82216614</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="Q47" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>23.716312</v>
@@ -4771,37 +5029,46 @@
       <c r="D48" s="0" t="n">
         <v>8.558558</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>57</v>
+      <c r="E48" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" s="0" t="n">
         <v>43.954803</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="J48" s="0" t="n">
         <v>1.6659142</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M48" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O48" s="0" t="n">
         <v>34.129307</v>
       </c>
-      <c r="N48" s="0" t="n">
+      <c r="P48" s="0" t="n">
         <v>0.6380043</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="Q48" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>22.695036</v>
@@ -4809,37 +5076,46 @@
       <c r="D49" s="0" t="n">
         <v>8.22072</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>57</v>
+      <c r="E49" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H49" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" s="0" t="n">
         <v>45.536724</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="J49" s="0" t="n">
         <v>0.83972913</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M49" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O49" s="0" t="n">
         <v>35.12912</v>
       </c>
-      <c r="N49" s="0" t="n">
+      <c r="P49" s="0" t="n">
         <v>0.49814552</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+      <c r="Q49" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>21.90071</v>
@@ -4847,37 +5123,46 @@
       <c r="D50" s="0" t="n">
         <v>8.018018</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>57</v>
+      <c r="E50" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="0" t="n">
         <v>53.78531</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="J50" s="0" t="n">
         <v>0.83972913</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M50" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O50" s="0" t="n">
         <v>39.289005</v>
       </c>
-      <c r="N50" s="0" t="n">
+      <c r="P50" s="0" t="n">
         <v>0.68188304</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+      <c r="Q50" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>22.58156</v>
@@ -4885,37 +5170,46 @@
       <c r="D51" s="0" t="n">
         <v>8.018018</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>57</v>
+      <c r="E51" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="0" t="n">
         <v>53.446327</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="J51" s="0" t="n">
         <v>1.1376975</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M51" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O51" s="0" t="n">
         <v>40.342606</v>
       </c>
-      <c r="N51" s="0" t="n">
+      <c r="P51" s="0" t="n">
         <v>0.7908848</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+      <c r="Q51" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>22.80851</v>
@@ -4923,37 +5217,46 @@
       <c r="D52" s="0" t="n">
         <v>7.927928</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>57</v>
+      <c r="E52" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="0" t="n">
         <v>50.847458</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="J52" s="0" t="n">
         <v>1.3182844</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M52" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O52" s="0" t="n">
         <v>47.27869</v>
       </c>
-      <c r="N52" s="0" t="n">
+      <c r="P52" s="0" t="n">
         <v>1.1107502</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+      <c r="Q52" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>21.106382</v>
@@ -4961,37 +5264,46 @@
       <c r="D53" s="0" t="n">
         <v>7.3873873</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>57</v>
+      <c r="E53" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H53" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" s="0" t="n">
         <v>50.847458</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="J53" s="0" t="n">
         <v>1.5395033</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M53" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O53" s="0" t="n">
         <v>52.374287</v>
       </c>
-      <c r="N53" s="0" t="n">
+      <c r="P53" s="0" t="n">
         <v>0.85804164</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+      <c r="Q53" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>21.67376</v>
@@ -4999,37 +5311,46 @@
       <c r="D54" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="F54" s="0" t="s">
-        <v>57</v>
+      <c r="E54" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="0" t="n">
         <v>59.435028</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="J54" s="0" t="n">
         <v>0.979684</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M54" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O54" s="0" t="n">
         <v>50.434334</v>
       </c>
-      <c r="N54" s="0" t="n">
+      <c r="P54" s="0" t="n">
         <v>0.6195691</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+      <c r="Q54" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>22.014185</v>
@@ -5037,37 +5358,46 @@
       <c r="D55" s="0" t="n">
         <v>7.3423424</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>57</v>
+      <c r="E55" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H55" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" s="0" t="n">
         <v>57.627117</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="J55" s="0" t="n">
         <v>1.9683973</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M55" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O55" s="0" t="n">
         <v>57.098545</v>
       </c>
-      <c r="N55" s="0" t="n">
+      <c r="P55" s="0" t="n">
         <v>0.47581843</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+      <c r="Q55" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>21.787233</v>
@@ -5075,37 +5405,46 @@
       <c r="D56" s="0" t="n">
         <v>7.0945945</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>57</v>
+      <c r="E56" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="0" t="n">
         <v>55.932205</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="J56" s="0" t="n">
         <v>2.4108353</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M56" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O56" s="0" t="n">
         <v>58.421074</v>
       </c>
-      <c r="N56" s="0" t="n">
+      <c r="P56" s="0" t="n">
         <v>1.0348</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+      <c r="Q56" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>21.90071</v>
@@ -5113,37 +5452,46 @@
       <c r="D57" s="0" t="n">
         <v>6.9144144</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>57</v>
+      <c r="E57" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" s="0" t="n">
         <v>61.80791</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="J57" s="0" t="n">
         <v>2.343115</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M57" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O57" s="0" t="n">
         <v>63.176277</v>
       </c>
-      <c r="N57" s="0" t="n">
+      <c r="P57" s="0" t="n">
         <v>0.795757</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+      <c r="Q57" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>22.58156</v>
@@ -5151,37 +5499,46 @@
       <c r="D58" s="0" t="n">
         <v>6.9144144</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>57</v>
+      <c r="E58" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H58" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>62.59887</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="J58" s="0" t="n">
         <v>1.7155756</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L58" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M58" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O58" s="0" t="n">
         <v>61.24369</v>
       </c>
-      <c r="N58" s="0" t="n">
+      <c r="P58" s="0" t="n">
         <v>0.59137493</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+      <c r="Q58" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>22.014185</v>
@@ -5189,37 +5546,46 @@
       <c r="D59" s="0" t="n">
         <v>6.599099</v>
       </c>
-      <c r="F59" s="0" t="s">
-        <v>57</v>
+      <c r="E59" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" s="0" t="n">
         <v>70.62147</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="J59" s="0" t="n">
         <v>1.4627539</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M59" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O59" s="0" t="n">
         <v>62.270767</v>
       </c>
-      <c r="N59" s="0" t="n">
+      <c r="P59" s="0" t="n">
         <v>0.57765096</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+      <c r="Q59" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>22.80851</v>
@@ -5227,37 +5593,46 @@
       <c r="D60" s="0" t="n">
         <v>6.463964</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>57</v>
+      <c r="E60" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I60" s="0" t="n">
         <v>76.94915</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="J60" s="0" t="n">
         <v>1.5620768</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L60" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O60" s="0" t="n">
         <v>63.63087</v>
       </c>
-      <c r="N60" s="0" t="n">
+      <c r="P60" s="0" t="n">
         <v>0.51617104</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+      <c r="Q60" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>22.695036</v>
@@ -5265,37 +5640,46 @@
       <c r="D61" s="0" t="n">
         <v>6.6666665</v>
       </c>
-      <c r="F61" s="0" t="s">
-        <v>57</v>
+      <c r="E61" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I61" s="0" t="n">
         <v>75.81921</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="J61" s="0" t="n">
         <v>1.006772</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O61" s="0" t="n">
         <v>71.27574</v>
       </c>
-      <c r="N61" s="0" t="n">
+      <c r="P61" s="0" t="n">
         <v>0.9382494</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+      <c r="Q61" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>23.716312</v>
@@ -5303,37 +5687,46 @@
       <c r="D62" s="0" t="n">
         <v>6.463964</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>57</v>
+      <c r="E62" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H62" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" s="0" t="n">
         <v>74.57627</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="J62" s="0" t="n">
         <v>0.96614</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O62" s="0" t="n">
         <v>80.20188</v>
       </c>
-      <c r="N62" s="0" t="n">
+      <c r="P62" s="0" t="n">
         <v>0.9340795</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+      <c r="Q62" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>23.829786</v>
@@ -5341,37 +5734,46 @@
       <c r="D63" s="0" t="n">
         <v>6.6216216</v>
       </c>
-      <c r="F63" s="0" t="s">
-        <v>57</v>
+      <c r="E63" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H63" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I63" s="0" t="n">
         <v>70.62147</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="J63" s="0" t="n">
         <v>0.35665914</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M63" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O63" s="0" t="n">
         <v>81.220116</v>
       </c>
-      <c r="N63" s="0" t="n">
+      <c r="P63" s="0" t="n">
         <v>0.8794469</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+      <c r="Q63" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>23.716312</v>
@@ -5379,37 +5781,46 @@
       <c r="D64" s="0" t="n">
         <v>6.846847</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>57</v>
+      <c r="E64" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H64" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I64" s="0" t="n">
         <v>81.694916</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="J64" s="0" t="n">
         <v>0.510158</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M64" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O64" s="0" t="n">
         <v>77.240005</v>
       </c>
-      <c r="N64" s="0" t="n">
+      <c r="P64" s="0" t="n">
         <v>0.73319435</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+      <c r="Q64" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>23.48936</v>
@@ -5417,37 +5828,46 @@
       <c r="D65" s="0" t="n">
         <v>7.0495496</v>
       </c>
-      <c r="F65" s="0" t="s">
-        <v>57</v>
+      <c r="E65" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H65" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" s="0" t="n">
         <v>84.745766</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="J65" s="0" t="n">
         <v>0.79006773</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L65" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M65" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O65" s="0" t="n">
         <v>70.8322</v>
       </c>
-      <c r="N65" s="0" t="n">
+      <c r="P65" s="0" t="n">
         <v>0.47464794</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+      <c r="Q65" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>23.262411</v>
@@ -5455,37 +5875,46 @@
       <c r="D66" s="0" t="n">
         <v>7.2297297</v>
       </c>
-      <c r="F66" s="0" t="s">
-        <v>57</v>
+      <c r="E66" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H66" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" s="0" t="n">
         <v>80.56497</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="J66" s="0" t="n">
         <v>0.9751693</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M66" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O66" s="0" t="n">
         <v>70.97071</v>
       </c>
-      <c r="N66" s="0" t="n">
+      <c r="P66" s="0" t="n">
         <v>0.3212261</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+      <c r="Q66" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>23.716312</v>
@@ -5493,37 +5922,46 @@
       <c r="D67" s="0" t="n">
         <v>7.31982</v>
       </c>
-      <c r="F67" s="0" t="s">
-        <v>57</v>
+      <c r="E67" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H67" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I67" s="0" t="n">
         <v>87.68362</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="J67" s="0" t="n">
         <v>1.0383747</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L67" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M67" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O67" s="0" t="n">
         <v>75.132805</v>
       </c>
-      <c r="N67" s="0" t="n">
+      <c r="P67" s="0" t="n">
         <v>0.5151908</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+      <c r="Q67" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>22.921986</v>
@@ -5531,25 +5969,31 @@
       <c r="D68" s="0" t="n">
         <v>7.454955</v>
       </c>
-      <c r="K68" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L68" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M68" s="0" t="n">
+      <c r="E68" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O68" s="0" t="n">
         <v>76.16725</v>
       </c>
-      <c r="N68" s="0" t="n">
+      <c r="P68" s="0" t="n">
         <v>0.53555727</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+      <c r="Q68" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>23.148935</v>
@@ -5557,25 +6001,31 @@
       <c r="D69" s="0" t="n">
         <v>7.635135</v>
       </c>
-      <c r="K69" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M69" s="0" t="n">
+      <c r="E69" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O69" s="0" t="n">
         <v>78.03352</v>
       </c>
-      <c r="N69" s="0" t="n">
+      <c r="P69" s="0" t="n">
         <v>0.43312484</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+      <c r="Q69" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>24.624113</v>
@@ -5583,25 +6033,31 @@
       <c r="D70" s="0" t="n">
         <v>7.5900903</v>
       </c>
-      <c r="K70" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M70" s="0" t="n">
+      <c r="E70" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O70" s="0" t="n">
         <v>80.95856</v>
       </c>
-      <c r="N70" s="0" t="n">
+      <c r="P70" s="0" t="n">
         <v>0.46355754</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+      <c r="Q70" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>24.170214</v>
@@ -5609,25 +6065,31 @@
       <c r="D71" s="0" t="n">
         <v>7.207207</v>
       </c>
-      <c r="K71" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M71" s="0" t="n">
+      <c r="E71" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O71" s="0" t="n">
         <v>82.1853</v>
       </c>
-      <c r="N71" s="0" t="n">
+      <c r="P71" s="0" t="n">
         <v>0.5793628</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+      <c r="Q71" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>24.737589</v>
@@ -5635,25 +6097,31 @@
       <c r="D72" s="0" t="n">
         <v>7.0945945</v>
       </c>
-      <c r="K72" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M72" s="0" t="n">
+      <c r="E72" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O72" s="0" t="n">
         <v>88.2063</v>
       </c>
-      <c r="N72" s="0" t="n">
+      <c r="P72" s="0" t="n">
         <v>0.6368046</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+      <c r="Q72" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>25.304964</v>
@@ -5661,25 +6129,31 @@
       <c r="D73" s="0" t="n">
         <v>6.936937</v>
       </c>
-      <c r="K73" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M73" s="0" t="n">
+      <c r="E73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O73" s="0" t="n">
         <v>85.0816</v>
       </c>
-      <c r="N73" s="0" t="n">
+      <c r="P73" s="0" t="n">
         <v>0.4768426</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+      <c r="Q73" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>25.64539</v>
@@ -5687,13 +6161,16 @@
       <c r="D74" s="0" t="n">
         <v>6.779279</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+      <c r="E74" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>25.41844</v>
@@ -5701,13 +6178,16 @@
       <c r="D75" s="0" t="n">
         <v>6.5540543</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+      <c r="E75" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>26.780142</v>
@@ -5715,13 +6195,16 @@
       <c r="D76" s="0" t="n">
         <v>6.396396</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+      <c r="E76" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>25.758865</v>
@@ -5729,13 +6212,16 @@
       <c r="D77" s="0" t="n">
         <v>6.3063064</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+      <c r="E77" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>25.078014</v>
@@ -5743,13 +6229,16 @@
       <c r="D78" s="0" t="n">
         <v>6.1936936</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+      <c r="E78" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>24.624113</v>
@@ -5757,13 +6246,16 @@
       <c r="D79" s="0" t="n">
         <v>6.6216216</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+      <c r="E79" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>24.624113</v>
@@ -5771,13 +6263,16 @@
       <c r="D80" s="0" t="n">
         <v>6.779279</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+      <c r="E80" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>24.283688</v>
@@ -5785,13 +6280,16 @@
       <c r="D81" s="0" t="n">
         <v>7.0045047</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+      <c r="E81" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>24.624113</v>
@@ -5799,13 +6297,16 @@
       <c r="D82" s="0" t="n">
         <v>8.265766</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
+      <c r="E82" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>25.531916</v>
@@ -5813,13 +6314,16 @@
       <c r="D83" s="0" t="n">
         <v>7.972973</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
+      <c r="E83" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>27.687943</v>
@@ -5827,13 +6331,16 @@
       <c r="D84" s="0" t="n">
         <v>7.86036</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
+      <c r="E84" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>26.893618</v>
@@ -5841,13 +6348,16 @@
       <c r="D85" s="0" t="n">
         <v>7.5225224</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+      <c r="E85" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>26.666666</v>
@@ -5855,13 +6365,16 @@
       <c r="D86" s="0" t="n">
         <v>7.2747746</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+      <c r="E86" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>26.893618</v>
@@ -5869,13 +6382,16 @@
       <c r="D87" s="0" t="n">
         <v>7.1846848</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+      <c r="E87" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>26.893618</v>
@@ -5883,13 +6399,16 @@
       <c r="D88" s="0" t="n">
         <v>7.072072</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+      <c r="E88" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>30.751774</v>
@@ -5897,13 +6416,16 @@
       <c r="D89" s="0" t="n">
         <v>6.463964</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
+      <c r="E89" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>32.567375</v>
@@ -5911,13 +6433,16 @@
       <c r="D90" s="0" t="n">
         <v>5.8333335</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
+      <c r="E90" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>28.822695</v>
@@ -5925,13 +6450,16 @@
       <c r="D91" s="0" t="n">
         <v>7.5900903</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+      <c r="E91" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>29.957447</v>
@@ -5939,13 +6467,16 @@
       <c r="D92" s="0" t="n">
         <v>7.635135</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
+      <c r="E92" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>30.638298</v>
@@ -5953,13 +6484,16 @@
       <c r="D93" s="0" t="n">
         <v>7.8153152</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+      <c r="E93" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>32.567375</v>
@@ -5967,13 +6501,16 @@
       <c r="D94" s="0" t="n">
         <v>7.68018</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+      <c r="E94" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>32.113476</v>
@@ -5981,13 +6518,16 @@
       <c r="D95" s="0" t="n">
         <v>9.189189</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
+      <c r="E95" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>36.539005</v>
@@ -5995,13 +6535,16 @@
       <c r="D96" s="0" t="n">
         <v>8.558558</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+      <c r="E96" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>37.67376</v>
@@ -6009,13 +6552,16 @@
       <c r="D97" s="0" t="n">
         <v>7.8153152</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+      <c r="E97" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>37.90071</v>
@@ -6023,13 +6569,16 @@
       <c r="D98" s="0" t="n">
         <v>7.7027025</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
+      <c r="E98" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>38.695034</v>
@@ -6037,13 +6586,16 @@
       <c r="D99" s="0" t="n">
         <v>7.0045047</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
+      <c r="E99" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>38.581562</v>
@@ -6051,13 +6603,16 @@
       <c r="D100" s="0" t="n">
         <v>8.265766</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+      <c r="E100" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>39.716312</v>
@@ -6065,13 +6620,16 @@
       <c r="D101" s="0" t="n">
         <v>7.8153152</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+      <c r="E101" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>43.574467</v>
@@ -6079,13 +6637,16 @@
       <c r="D102" s="0" t="n">
         <v>7.9954953</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
+      <c r="E102" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>44.70922</v>
@@ -6093,13 +6654,16 @@
       <c r="D103" s="0" t="n">
         <v>7.0495496</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
+      <c r="E103" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>47.77305</v>
@@ -6107,13 +6671,16 @@
       <c r="D104" s="0" t="n">
         <v>7.072072</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
+      <c r="E104" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>49.70213</v>
@@ -6121,13 +6688,16 @@
       <c r="D105" s="0" t="n">
         <v>7.68018</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+      <c r="E105" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>51.51773</v>
@@ -6135,13 +6705,16 @@
       <c r="D106" s="0" t="n">
         <v>6.1486487</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
+      <c r="E106" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>56.51064</v>
@@ -6149,13 +6722,16 @@
       <c r="D107" s="0" t="n">
         <v>6.0135136</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+      <c r="E107" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>57.64539</v>
@@ -6163,13 +6739,16 @@
       <c r="D108" s="0" t="n">
         <v>6.328829</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+      <c r="E108" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>60.595745</v>
@@ -6177,13 +6756,16 @@
       <c r="D109" s="0" t="n">
         <v>7.13964</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
+      <c r="E109" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>62.638298</v>
@@ -6191,13 +6773,16 @@
       <c r="D110" s="0" t="n">
         <v>7.252252</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
+      <c r="E110" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>62.638298</v>
@@ -6205,13 +6790,16 @@
       <c r="D111" s="0" t="n">
         <v>7.4324327</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+      <c r="E111" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>70.35461</v>
@@ -6219,13 +6807,16 @@
       <c r="D112" s="0" t="n">
         <v>8.355856</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
+      <c r="E112" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>70.46809</v>
@@ -6233,13 +6824,16 @@
       <c r="D113" s="0" t="n">
         <v>7.3873873</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
+      <c r="E113" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>70.58156</v>
@@ -6247,13 +6841,16 @@
       <c r="D114" s="0" t="n">
         <v>4.7972975</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
+      <c r="E114" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>74.43971</v>
@@ -6261,13 +6858,16 @@
       <c r="D115" s="0" t="n">
         <v>6.1486487</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
+      <c r="E115" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>75.34752</v>
@@ -6275,13 +6875,16 @@
       <c r="D116" s="0" t="n">
         <v>6.9594593</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+      <c r="E116" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>76.59574</v>
@@ -6289,13 +6892,16 @@
       <c r="D117" s="0" t="n">
         <v>6.891892</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+      <c r="E117" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>77.39007</v>
@@ -6303,13 +6909,16 @@
       <c r="D118" s="0" t="n">
         <v>6.283784</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+      <c r="E118" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>79.5461</v>
@@ -6317,13 +6926,16 @@
       <c r="D119" s="0" t="n">
         <v>6.328829</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+      <c r="E119" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>81.702126</v>
@@ -6331,13 +6943,16 @@
       <c r="D120" s="0" t="n">
         <v>5.608108</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+      <c r="E120" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>84.53901</v>
@@ -6345,13 +6960,16 @@
       <c r="D121" s="0" t="n">
         <v>5.900901</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+      <c r="E121" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>80.680855</v>
@@ -6359,13 +6977,16 @@
       <c r="D122" s="0" t="n">
         <v>5.0675673</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+      <c r="E122" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>80.567375</v>
@@ -6373,13 +6994,16 @@
       <c r="D123" s="0" t="n">
         <v>4.7972975</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+      <c r="E123" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>88.510635</v>
@@ -6387,9 +7011,12 @@
       <c r="D124" s="0" t="n">
         <v>3.7387388</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131"/>
+      <c r="E124" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
@@ -6397,7 +7024,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/experimental_data/GEC/Schnegg1986.xlsx
+++ b/experimental_data/GEC/Schnegg1986.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="107">
   <si>
     <t>Schnegg1986 – Quantitative Liver Function in the Elderly Assessed by GEC</t>
   </si>
@@ -218,6 +218,9 @@
     <t>Table 3</t>
   </si>
   <si>
+    <t>Age status</t>
+  </si>
+  <si>
     <t>n GEC</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
   </si>
   <si>
     <t>Aminopyrine breath test [% dose x kg/mmoles CO2] SD</t>
+  </si>
+  <si>
+    <t>ageStatus</t>
   </si>
   <si>
     <t>nGEC</t>
@@ -610,7 +616,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1247,11 +1253,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="39605283"/>
-        <c:axId val="33484319"/>
+        <c:axId val="55071276"/>
+        <c:axId val="99577780"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39605283"/>
+        <c:axId val="55071276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,11 +1293,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33484319"/>
+        <c:crossAx val="99577780"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33484319"/>
+        <c:axId val="99577780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1328,7 +1334,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39605283"/>
+        <c:crossAx val="55071276"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="2"/>
       </c:valAx>
@@ -1354,7 +1360,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1649,11 +1655,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55883257"/>
-        <c:axId val="50949528"/>
+        <c:axId val="38028485"/>
+        <c:axId val="11591500"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55883257"/>
+        <c:axId val="38028485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1691,12 +1697,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50949528"/>
+        <c:crossAx val="11591500"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50949528"/>
+        <c:axId val="11591500"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -1734,7 +1740,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55883257"/>
+        <c:crossAx val="38028485"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1760,7 +1766,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2091,11 +2097,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="44514122"/>
-        <c:axId val="13963499"/>
+        <c:axId val="31928015"/>
+        <c:axId val="51323410"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44514122"/>
+        <c:axId val="31928015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2133,12 +2139,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13963499"/>
+        <c:crossAx val="51323410"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13963499"/>
+        <c:axId val="51323410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2180,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44514122"/>
+        <c:crossAx val="31928015"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2205,14 +2211,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>730800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366840</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2244,14 +2250,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>465120</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>358920</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2283,14 +2289,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>467280</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81720</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2328,8 +2334,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>758880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2361,14 +2367,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>328680</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>738000</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2400,14 +2406,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>575280</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>136800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2439,14 +2445,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>459360</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2469,14 +2475,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>809280</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>405360</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2499,14 +2505,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>673920</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>460800</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2535,8 +2541,8 @@
   </sheetPr>
   <dimension ref="A1:AA130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30:Q73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3853,109 +3859,115 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="B22" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P22" s="10" t="s">
         <v>46</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>60</v>
@@ -4008,7 +4020,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>60</v>
@@ -4061,7 +4073,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>60</v>
@@ -4114,13 +4126,13 @@
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>6</v>
@@ -4149,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>8</v>
@@ -4164,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>8</v>
@@ -4181,7 +4193,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>33</v>
@@ -4196,7 +4208,7 @@
         <v>36</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>35</v>
@@ -4222,7 +4234,7 @@
         <v>59</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>15.773049</v>
@@ -4237,7 +4249,7 @@
         <v>59</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>24.745762</v>
@@ -4252,7 +4264,7 @@
         <v>59</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>18.177933</v>
@@ -4269,7 +4281,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>18.609928</v>
@@ -4284,7 +4296,7 @@
         <v>59</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>27.00565</v>
@@ -4299,7 +4311,7 @@
         <v>59</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>22.092466</v>
@@ -4316,7 +4328,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>19.631207</v>
@@ -4331,7 +4343,7 @@
         <v>59</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>27.79661</v>
@@ -4346,7 +4358,7 @@
         <v>59</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>20.1282</v>
@@ -4363,7 +4375,7 @@
         <v>59</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>19.74468</v>
@@ -4378,7 +4390,7 @@
         <v>59</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>28.58757</v>
@@ -4393,7 +4405,7 @@
         <v>59</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>23.340578</v>
@@ -4410,7 +4422,7 @@
         <v>59</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>19.74468</v>
@@ -4425,7 +4437,7 @@
         <v>59</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>29.83051</v>
@@ -4440,7 +4452,7 @@
         <v>59</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>24.555534</v>
@@ -4457,7 +4469,7 @@
         <v>59</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>20.652483</v>
@@ -4472,7 +4484,7 @@
         <v>59</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>32.542374</v>
@@ -4487,7 +4499,7 @@
         <v>59</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>25.05581</v>
@@ -4504,7 +4516,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>21.67376</v>
@@ -4519,7 +4531,7 @@
         <v>59</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>23.728813</v>
@@ -4534,7 +4546,7 @@
         <v>59</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>25.39547</v>
@@ -4551,7 +4563,7 @@
         <v>59</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>22.695036</v>
@@ -4566,7 +4578,7 @@
         <v>59</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>27.79661</v>
@@ -4581,7 +4593,7 @@
         <v>59</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>26.092466</v>
@@ -4598,7 +4610,7 @@
         <v>59</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>23.716312</v>
@@ -4613,7 +4625,7 @@
         <v>59</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>22.146893</v>
@@ -4628,7 +4640,7 @@
         <v>59</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>27.286057</v>
@@ -4645,7 +4657,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>23.943262</v>
@@ -4660,7 +4672,7 @@
         <v>59</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>24.632769</v>
@@ -4675,7 +4687,7 @@
         <v>59</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>27.109964</v>
@@ -4692,7 +4704,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>21.560284</v>
@@ -4707,7 +4719,7 @@
         <v>59</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>26.779661</v>
@@ -4722,7 +4734,7 @@
         <v>59</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>27.268373</v>
@@ -4739,7 +4751,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>21.333334</v>
@@ -4754,7 +4766,7 @@
         <v>59</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>25.649717</v>
@@ -4769,7 +4781,7 @@
         <v>59</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>30.375391</v>
@@ -4786,7 +4798,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>21.67376</v>
@@ -4801,7 +4813,7 @@
         <v>59</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>28.58757</v>
@@ -4816,7 +4828,7 @@
         <v>59</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>29.419783</v>
@@ -4833,7 +4845,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>23.602837</v>
@@ -4848,7 +4860,7 @@
         <v>59</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>34.915253</v>
@@ -4863,7 +4875,7 @@
         <v>59</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>35.244797</v>
@@ -4880,7 +4892,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>24.51064</v>
@@ -4895,7 +4907,7 @@
         <v>59</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>33.559322</v>
@@ -4910,7 +4922,7 @@
         <v>59</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>35.235954</v>
@@ -4927,7 +4939,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>25.41844</v>
@@ -4942,7 +4954,7 @@
         <v>59</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>35.028248</v>
@@ -4957,7 +4969,7 @@
         <v>59</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O46" s="0" t="n">
         <v>33.313686</v>
@@ -4974,7 +4986,7 @@
         <v>59</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>24.624113</v>
@@ -4989,7 +5001,7 @@
         <v>59</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>41.920902</v>
@@ -5004,7 +5016,7 @@
         <v>59</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>33.310738</v>
@@ -5021,7 +5033,7 @@
         <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>23.716312</v>
@@ -5036,7 +5048,7 @@
         <v>59</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>43.954803</v>
@@ -5051,7 +5063,7 @@
         <v>59</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>34.129307</v>
@@ -5068,7 +5080,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>22.695036</v>
@@ -5083,7 +5095,7 @@
         <v>59</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>45.536724</v>
@@ -5098,7 +5110,7 @@
         <v>59</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O49" s="0" t="n">
         <v>35.12912</v>
@@ -5115,7 +5127,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>21.90071</v>
@@ -5130,7 +5142,7 @@
         <v>59</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>53.78531</v>
@@ -5145,7 +5157,7 @@
         <v>59</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>39.289005</v>
@@ -5162,7 +5174,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>22.58156</v>
@@ -5177,7 +5189,7 @@
         <v>59</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>53.446327</v>
@@ -5192,7 +5204,7 @@
         <v>59</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O51" s="0" t="n">
         <v>40.342606</v>
@@ -5209,7 +5221,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>22.80851</v>
@@ -5224,7 +5236,7 @@
         <v>59</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>50.847458</v>
@@ -5239,7 +5251,7 @@
         <v>59</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O52" s="0" t="n">
         <v>47.27869</v>
@@ -5256,7 +5268,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>21.106382</v>
@@ -5271,7 +5283,7 @@
         <v>59</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>50.847458</v>
@@ -5286,7 +5298,7 @@
         <v>59</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O53" s="0" t="n">
         <v>52.374287</v>
@@ -5303,7 +5315,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>21.67376</v>
@@ -5318,7 +5330,7 @@
         <v>59</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>59.435028</v>
@@ -5333,7 +5345,7 @@
         <v>59</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O54" s="0" t="n">
         <v>50.434334</v>
@@ -5350,7 +5362,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>22.014185</v>
@@ -5365,7 +5377,7 @@
         <v>59</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>57.627117</v>
@@ -5380,7 +5392,7 @@
         <v>59</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O55" s="0" t="n">
         <v>57.098545</v>
@@ -5397,7 +5409,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>21.787233</v>
@@ -5412,7 +5424,7 @@
         <v>59</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>55.932205</v>
@@ -5427,7 +5439,7 @@
         <v>59</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O56" s="0" t="n">
         <v>58.421074</v>
@@ -5444,7 +5456,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>21.90071</v>
@@ -5459,7 +5471,7 @@
         <v>59</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>61.80791</v>
@@ -5474,7 +5486,7 @@
         <v>59</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O57" s="0" t="n">
         <v>63.176277</v>
@@ -5491,7 +5503,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>22.58156</v>
@@ -5506,7 +5518,7 @@
         <v>59</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>62.59887</v>
@@ -5521,7 +5533,7 @@
         <v>59</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O58" s="0" t="n">
         <v>61.24369</v>
@@ -5538,7 +5550,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>22.014185</v>
@@ -5553,7 +5565,7 @@
         <v>59</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>70.62147</v>
@@ -5568,7 +5580,7 @@
         <v>59</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O59" s="0" t="n">
         <v>62.270767</v>
@@ -5585,7 +5597,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>22.80851</v>
@@ -5600,7 +5612,7 @@
         <v>59</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>76.94915</v>
@@ -5615,7 +5627,7 @@
         <v>59</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O60" s="0" t="n">
         <v>63.63087</v>
@@ -5632,7 +5644,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>22.695036</v>
@@ -5647,7 +5659,7 @@
         <v>59</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>75.81921</v>
@@ -5662,7 +5674,7 @@
         <v>59</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O61" s="0" t="n">
         <v>71.27574</v>
@@ -5679,7 +5691,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>23.716312</v>
@@ -5694,7 +5706,7 @@
         <v>59</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>74.57627</v>
@@ -5709,7 +5721,7 @@
         <v>59</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O62" s="0" t="n">
         <v>80.20188</v>
@@ -5726,7 +5738,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>23.829786</v>
@@ -5741,7 +5753,7 @@
         <v>59</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>70.62147</v>
@@ -5756,7 +5768,7 @@
         <v>59</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O63" s="0" t="n">
         <v>81.220116</v>
@@ -5773,7 +5785,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>23.716312</v>
@@ -5788,7 +5800,7 @@
         <v>59</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>81.694916</v>
@@ -5803,7 +5815,7 @@
         <v>59</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O64" s="0" t="n">
         <v>77.240005</v>
@@ -5820,7 +5832,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>23.48936</v>
@@ -5835,7 +5847,7 @@
         <v>59</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>84.745766</v>
@@ -5850,7 +5862,7 @@
         <v>59</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O65" s="0" t="n">
         <v>70.8322</v>
@@ -5867,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>23.262411</v>
@@ -5882,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>80.56497</v>
@@ -5897,7 +5909,7 @@
         <v>59</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O66" s="0" t="n">
         <v>70.97071</v>
@@ -5914,7 +5926,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>23.716312</v>
@@ -5929,7 +5941,7 @@
         <v>59</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>87.68362</v>
@@ -5944,7 +5956,7 @@
         <v>59</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O67" s="0" t="n">
         <v>75.132805</v>
@@ -5961,7 +5973,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>22.921986</v>
@@ -5976,7 +5988,7 @@
         <v>59</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O68" s="0" t="n">
         <v>76.16725</v>
@@ -5993,7 +6005,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>23.148935</v>
@@ -6008,7 +6020,7 @@
         <v>59</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O69" s="0" t="n">
         <v>78.03352</v>
@@ -6025,7 +6037,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>24.624113</v>
@@ -6040,7 +6052,7 @@
         <v>59</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O70" s="0" t="n">
         <v>80.95856</v>
@@ -6057,7 +6069,7 @@
         <v>59</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>24.170214</v>
@@ -6072,7 +6084,7 @@
         <v>59</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O71" s="0" t="n">
         <v>82.1853</v>
@@ -6089,7 +6101,7 @@
         <v>59</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>24.737589</v>
@@ -6104,7 +6116,7 @@
         <v>59</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O72" s="0" t="n">
         <v>88.2063</v>
@@ -6121,7 +6133,7 @@
         <v>59</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>25.304964</v>
@@ -6136,7 +6148,7 @@
         <v>59</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O73" s="0" t="n">
         <v>85.0816</v>
@@ -6153,7 +6165,7 @@
         <v>59</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>25.64539</v>
@@ -6170,7 +6182,7 @@
         <v>59</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>25.41844</v>
@@ -6187,7 +6199,7 @@
         <v>59</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>26.780142</v>
@@ -6204,7 +6216,7 @@
         <v>59</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>25.758865</v>
@@ -6221,7 +6233,7 @@
         <v>59</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>25.078014</v>
@@ -6238,7 +6250,7 @@
         <v>59</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>24.624113</v>
@@ -6255,7 +6267,7 @@
         <v>59</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>24.624113</v>
@@ -6272,7 +6284,7 @@
         <v>59</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>24.283688</v>
@@ -6289,7 +6301,7 @@
         <v>59</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>24.624113</v>
@@ -6306,7 +6318,7 @@
         <v>59</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>25.531916</v>
@@ -6323,7 +6335,7 @@
         <v>59</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>27.687943</v>
@@ -6340,7 +6352,7 @@
         <v>59</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>26.893618</v>
@@ -6357,7 +6369,7 @@
         <v>59</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>26.666666</v>
@@ -6374,7 +6386,7 @@
         <v>59</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>26.893618</v>
@@ -6391,7 +6403,7 @@
         <v>59</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>26.893618</v>
@@ -6408,7 +6420,7 @@
         <v>59</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>30.751774</v>
@@ -6425,7 +6437,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>32.567375</v>
@@ -6442,7 +6454,7 @@
         <v>59</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>28.822695</v>
@@ -6459,7 +6471,7 @@
         <v>59</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>29.957447</v>
@@ -6476,7 +6488,7 @@
         <v>59</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>30.638298</v>
@@ -6493,7 +6505,7 @@
         <v>59</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>32.567375</v>
@@ -6510,7 +6522,7 @@
         <v>59</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>32.113476</v>
@@ -6527,7 +6539,7 @@
         <v>59</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>36.539005</v>
@@ -6544,7 +6556,7 @@
         <v>59</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>37.67376</v>
@@ -6561,7 +6573,7 @@
         <v>59</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>37.90071</v>
@@ -6578,7 +6590,7 @@
         <v>59</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>38.695034</v>
@@ -6595,7 +6607,7 @@
         <v>59</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>38.581562</v>
@@ -6612,7 +6624,7 @@
         <v>59</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>39.716312</v>
@@ -6629,7 +6641,7 @@
         <v>59</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>43.574467</v>
@@ -6646,7 +6658,7 @@
         <v>59</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>44.70922</v>
@@ -6663,7 +6675,7 @@
         <v>59</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>47.77305</v>
@@ -6680,7 +6692,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>49.70213</v>
@@ -6697,7 +6709,7 @@
         <v>59</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>51.51773</v>
@@ -6714,7 +6726,7 @@
         <v>59</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>56.51064</v>
@@ -6731,7 +6743,7 @@
         <v>59</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>57.64539</v>
@@ -6748,7 +6760,7 @@
         <v>59</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>60.595745</v>
@@ -6765,7 +6777,7 @@
         <v>59</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>62.638298</v>
@@ -6782,7 +6794,7 @@
         <v>59</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>62.638298</v>
@@ -6799,7 +6811,7 @@
         <v>59</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>70.35461</v>
@@ -6816,7 +6828,7 @@
         <v>59</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>70.46809</v>
@@ -6833,7 +6845,7 @@
         <v>59</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>70.58156</v>
@@ -6850,7 +6862,7 @@
         <v>59</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>74.43971</v>
@@ -6867,7 +6879,7 @@
         <v>59</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>75.34752</v>
@@ -6884,7 +6896,7 @@
         <v>59</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>76.59574</v>
@@ -6901,7 +6913,7 @@
         <v>59</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>77.39007</v>
@@ -6918,7 +6930,7 @@
         <v>59</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>79.5461</v>
@@ -6935,7 +6947,7 @@
         <v>59</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>81.702126</v>
@@ -6952,7 +6964,7 @@
         <v>59</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>84.53901</v>
@@ -6969,7 +6981,7 @@
         <v>59</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>80.680855</v>
@@ -6986,7 +6998,7 @@
         <v>59</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>80.567375</v>
@@ -7003,7 +7015,7 @@
         <v>59</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>88.510635</v>
